--- a/patientmanager/assets/Plantilla_Carga_Masiva.xlsx
+++ b/patientmanager/assets/Plantilla_Carga_Masiva.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="42">
   <si>
     <t xml:space="preserve">Nº DE CI:</t>
   </si>
@@ -255,31 +255,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -456,6 +456,832 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
